--- a/TaskMasterDesignDoc.xlsx
+++ b/TaskMasterDesignDoc.xlsx
@@ -5,14 +5,14 @@
 <file path=META-INF/manifest.xml><?xml version="1.0" encoding="utf-8"?>
 <manifest:manifest xmlns:manifest="urn:oasis:names:tc:opendocument:xmlns:manifest:1.0" manifest:version="1.2">
   <manifest:file-entry manifest:full-path="/" manifest:version="1.2" manifest:media-type="application/vnd.oasis.opendocument.spreadsheet"/>
-  <manifest:file-entry manifest:full-path="Thumbnails/thumbnail.png" manifest:media-type="image/png"/>
-  <manifest:file-entry manifest:full-path="settings.xml" manifest:media-type="text/xml"/>
-  <manifest:file-entry manifest:full-path="content.xml" manifest:media-type="text/xml"/>
-  <manifest:file-entry manifest:full-path="meta.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Configurations2/accelerator/current.xml" manifest:media-type=""/>
+  <manifest:file-entry manifest:full-path="Configurations2/" manifest:media-type="application/vnd.sun.xml.ui.configuration"/>
   <manifest:file-entry manifest:full-path="styles.xml" manifest:media-type="text/xml"/>
   <manifest:file-entry manifest:full-path="manifest.rdf" manifest:media-type="application/rdf+xml"/>
-  <manifest:file-entry manifest:full-path="Configurations2/accelerator/current.xml" manifest:media-type=""/>
-  <manifest:file-entry manifest:full-path="Configurations2/" manifest:media-type="application/vnd.sun.xml.ui.configuration"/>
+  <manifest:file-entry manifest:full-path="meta.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="Thumbnails/thumbnail.png" manifest:media-type="image/png"/>
+  <manifest:file-entry manifest:full-path="content.xml" manifest:media-type="text/xml"/>
+  <manifest:file-entry manifest:full-path="settings.xml" manifest:media-type="text/xml"/>
 </manifest:manifest>
 </file>
 
@@ -20,32 +20,44 @@
 <office:document-content xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:xforms="http://www.w3.org/2002/xforms" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:formx="urn:openoffice:names:experimental:ooxml-odf-interop:xmlns:form:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" office:version="1.2">
   <office:scripts/>
   <office:font-face-decls>
+    <style:font-face style:name="Liberation Sans1" svg:font-family="'Liberation Sans'" style:font-adornments="Regular"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="DejaVu Sans" svg:font-family="'DejaVu Sans'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Droid Sans Fallback" svg:font-family="'Droid Sans Fallback'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="FreeSans" svg:font-family="FreeSans" style:font-family-generic="system" style:font-pitch="variable"/>
+    <style:font-face style:name="Segoe UI" svg:font-family="'Segoe UI'" style:font-family-generic="system" style:font-pitch="variable"/>
+    <style:font-face style:name="Tahoma" svg:font-family="Tahoma" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
   <office:automatic-styles>
     <style:style style:name="co1" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.1898in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="85.66pt"/>
     </style:style>
     <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.889in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="64.01pt"/>
     </style:style>
     <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.1925in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="13.86pt"/>
     </style:style>
     <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="2.0472in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="147.4pt"/>
     </style:style>
     <style:style style:name="co5" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="0.1283in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="9.24pt"/>
     </style:style>
     <style:style style:name="co6" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="1.1146in"/>
+      <style:table-column-properties fo:break-before="auto" style:column-width="80.25pt"/>
+    </style:style>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="99.55pt"/>
+    </style:style>
+    <style:style style:name="co8" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="72.54pt"/>
+    </style:style>
+    <style:style style:name="co9" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="97.99pt"/>
     </style:style>
     <style:style style:name="ro1" style:family="table-row">
-      <style:table-row-properties style:row-height="0.178in" fo:break-before="auto" style:use-optimal-row-height="true"/>
+      <style:table-row-properties style:row-height="12.81pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
@@ -79,6 +91,12 @@
     </style:style>
     <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties fo:border-bottom="0.06pt solid #000000" fo:border-left="none" fo:border-right="0.06pt solid #000000" fo:border-top="none"/>
+    </style:style>
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:font-name="Liberation Sans1"/>
+    </style:style>
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Default">
+      <style:text-properties style:font-name="Liberation Sans1" style:font-name-asian="Liberation Sans1" style:font-name-complex="Liberation Sans1"/>
     </style:style>
   </office:automatic-styles>
   <office:body>
@@ -552,6 +570,112 @@
           </table:table-cell>
         </table:table-row>
       </table:table>
+      <table:table table:name="Sheet2" table:style-name="ta1">
+        <table:table-column table:style-name="co7" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:number-columns-repeated="3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co8" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:number-columns-repeated="4" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co9" table:default-cell-style-name="Default"/>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>Models</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>Controllers</text:p>
+          </table:table-cell>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce1" office:value-type="string" calcext:value-type="string">
+            <text:p>Views</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>Task</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>id</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>name</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Subtask 1</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Timeallocated</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Timeused</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce21" office:value-type="string" calcext:value-type="string">
+            <text:p>ʘ (timer)</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>x (delete)</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce22" office:value-type="string" calcext:value-type="string">
+            <text:p>√ (checkoff)</text:p>
+          </table:table-cell>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>&gt;&gt; Detail</text:p>
+          </table:table-cell>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>dateassigned</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Subtask 2</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce21"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>datecompleted</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>…</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>timeallocated</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2"/>
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>Subtask N</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="6"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>timeused</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1">
+          <table:table-cell office:value-type="string" calcext:value-type="string">
+            <text:p>parenttask</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="9"/>
+        </table:table-row>
+      </table:table>
       <table:named-expressions/>
     </office:spreadsheet>
   </office:body>
@@ -562,11 +686,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2017-05-08T18:54:58.221393507</meta:creation-date>
-    <dc:date>2017-05-09T10:17:14.707625825</dc:date>
-    <meta:editing-duration>PT7H11M52S</meta:editing-duration>
-    <meta:editing-cycles>7</meta:editing-cycles>
-    <meta:generator>LibreOffice/4.2.8.2$Linux_X86_64 LibreOffice_project/420m0$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="96" meta:object-count="0"/>
+    <dc:date>2017-05-25T10:57:22.179000000</dc:date>
+    <meta:editing-duration>PT8H53M20S</meta:editing-duration>
+    <meta:editing-cycles>9</meta:editing-cycles>
+    <meta:generator>LibreOffice/5.3.0.3$Windows_X86_64 LibreOffice_project/7074905676c47b82bbcfbea1aeefc84afe1c50e1</meta:generator>
+    <meta:document-statistic meta:table-count="2" meta:cell-count="118" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -585,7 +709,7 @@
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">0</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">7</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">0</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -599,10 +723,29 @@
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">false</config:config-item>
+              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
+            </config:config-item-map-entry>
+            <config:config-item-map-entry config:name="Sheet2">
+              <config:config-item config:name="CursorPositionX" config:type="int">9</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">6</config:config-item>
+              <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
+              <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="VerticalSplitPosition" config:type="int">0</config:config-item>
+              <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
+              <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+              <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
-          <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">152</config:config-item>
+          <config:config-item config:name="ActiveTable" config:type="string">Sheet2</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1856</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -615,6 +758,7 @@
           <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
           <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
           <config:config-item config:name="IsOutlineSymbolsSet" config:type="boolean">true</config:config-item>
+          <config:config-item config:name="IsValueHighlightingEnabled" config:type="boolean">false</config:config-item>
           <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
           <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
           <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
@@ -622,54 +766,59 @@
           <config:config-item config:name="RasterSubdivisionX" config:type="int">1</config:config-item>
           <config:config-item config:name="RasterSubdivisionY" config:type="int">1</config:config-item>
           <config:config-item config:name="IsRasterAxisSynchronized" config:type="boolean">true</config:config-item>
+          <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
         </config:config-item-map-entry>
       </config:config-item-map-indexed>
     </config:config-item-set>
     <config:config-item-set config:name="ooo:configuration-settings">
-      <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="SaveVersionOnClose" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="IsDocumentShared" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">lAH+/1N0eWx1cy1OWDMwMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQ1VQUzpTdHlsdXMtTlgzMDAAAAAAAAAAAAAAAAAAAAAWAAMAtgAAAAEAAAAIAFZUAAAkbQAASm9iRGF0YSAxCnByaW50ZXI9U3R5bHVzLU5YMzAwCm9yaWVudGF0aW9uPUxhbmRzY2FwZQpjb3BpZXM9MQpjb2xsYXRlPWZhbHNlCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MQpjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6TGV0dGVyAAASAENPTVBBVF9EVVBMRVhfTU9ERQ4ARFVQTEVYX1VOS05PV04=</config:config-item>
-      <config:config-item config:name="PrinterName" config:type="string">Stylus-NX300</config:config-item>
-      <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
-      <config:config-item config:name="RasterSubdivisionX" config:type="int">1</config:config-item>
-      <config:config-item config:name="IsOutlineSymbolsSet" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="AllowPrintJobCancel" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
       <config:config-item config:name="HasSheetTabs" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
-      <config:config-item config:name="IsRasterAxisSynchronized" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="GridColor" config:type="long">12632256</config:config-item>
-      <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="RasterSubdivisionY" config:type="int">1</config:config-item>
-      <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
       <config:config-item config:name="ShowNotes" config:type="boolean">true</config:config-item>
       <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="GridColor" config:type="long">12632256</config:config-item>
+      <config:config-item config:name="ShowPageBreaks" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="IsOutlineSymbolsSet" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="LinkUpdateMode" config:type="short">3</config:config-item>
+      <config:config-item config:name="HasColumnRowHeaders" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="IsSnapToRaster" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="RasterIsVisible" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="RasterResolutionX" config:type="int">1270</config:config-item>
+      <config:config-item config:name="RasterResolutionY" config:type="int">1270</config:config-item>
+      <config:config-item config:name="RasterSubdivisionX" config:type="int">1</config:config-item>
+      <config:config-item config:name="RasterSubdivisionY" config:type="int">1</config:config-item>
+      <config:config-item config:name="IsRasterAxisSynchronized" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="AutoCalculate" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="PrinterName" config:type="string">Send To OneNote 2010</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">9QT+/1NlbmQgVG8gT25lTm90ZSAyMDEwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU2VuZCBUbyBNaWNyb3NvZnQgT25lTm90ZSAyMDEwIAAWAAEAEgQAAAAAAAAIAFZUAAAkbQAAM1ROVwAAAAAKAFMAZQBuAGQAIABUAG8AIABPAG4AZQBOAG8AdABlACAAMgAwADEAMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABBAMG3AAsAwMvAAABAAEA6gpvCGQAAQAPAFgCAgABAFgCAwABAEwAZQB0AHQAZQByAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAQAAAAIAAAABAAAA/////wAAAAAAAAAAAAAAAAAAAABESU5VIgDQACwDAADCrJBRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA0AAAAFNNVEoAAAAAEADAAFMAZQBuAGQAIABUAG8AIABNAGkAYwByAG8AcwBvAGYAdAAgAE8AbgBlAE4AbwB0AGUAIAAyADAAMQAwACAARAByAGkAdgBlAHIAAABSRVNETEwAVW5pcmVzRExMAFBhcGVyU2l6ZQBMRVRURVIAT3JpZW50YXRpb24AUE9SVFJBSVQAUmVzb2x1dGlvbgBEUEk2MDAAQ29sb3JNb2RlADI0YnBwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABIAQ09NUEFUX0RVUExFWF9NT0RFEwBEdXBsZXhNb2RlOjpVbmtub3du</config:config-item>
+      <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
+      <config:config-item config:name="SaveVersionOnClose" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="UpdateFromTemplate" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="AllowPrintJobCancel" config:type="boolean">true</config:config-item>
+      <config:config-item config:name="LoadReadonly" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="IsDocumentShared" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="EmbedFonts" config:type="boolean">false</config:config-item>
+      <config:config-item config:name="SyntaxStringRef" config:type="short">7</config:config-item>
     </config:config-item-set>
   </office:settings>
 </office:document-settings>
 </file>
 
 <file path=styles.xml><?xml version="1.0" encoding="utf-8"?>
-<office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" office:version="1.2">
+<office:document-styles xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:style="urn:oasis:names:tc:opendocument:xmlns:style:1.0" xmlns:text="urn:oasis:names:tc:opendocument:xmlns:text:1.0" xmlns:table="urn:oasis:names:tc:opendocument:xmlns:table:1.0" xmlns:draw="urn:oasis:names:tc:opendocument:xmlns:drawing:1.0" xmlns:fo="urn:oasis:names:tc:opendocument:xmlns:xsl-fo-compatible:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:number="urn:oasis:names:tc:opendocument:xmlns:datastyle:1.0" xmlns:presentation="urn:oasis:names:tc:opendocument:xmlns:presentation:1.0" xmlns:svg="urn:oasis:names:tc:opendocument:xmlns:svg-compatible:1.0" xmlns:chart="urn:oasis:names:tc:opendocument:xmlns:chart:1.0" xmlns:dr3d="urn:oasis:names:tc:opendocument:xmlns:dr3d:1.0" xmlns:math="http://www.w3.org/1998/Math/MathML" xmlns:form="urn:oasis:names:tc:opendocument:xmlns:form:1.0" xmlns:script="urn:oasis:names:tc:opendocument:xmlns:script:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:ooow="http://openoffice.org/2004/writer" xmlns:oooc="http://openoffice.org/2004/calc" xmlns:dom="http://www.w3.org/2001/xml-events" xmlns:rpt="http://openoffice.org/2005/report" xmlns:of="urn:oasis:names:tc:opendocument:xmlns:of:1.2" xmlns:xhtml="http://www.w3.org/1999/xhtml" xmlns:grddl="http://www.w3.org/2003/g/data-view#" xmlns:tableooo="http://openoffice.org/2009/table" xmlns:drawooo="http://openoffice.org/2010/draw" xmlns:calcext="urn:org:documentfoundation:names:experimental:calc:xmlns:calcext:1.0" xmlns:loext="urn:org:documentfoundation:names:experimental:office:xmlns:loext:1.0" xmlns:field="urn:openoffice:names:experimental:ooo-ms-interop:xmlns:field:1.0" xmlns:css3t="http://www.w3.org/TR/css3-text/" office:version="1.2">
   <office:font-face-decls>
+    <style:font-face style:name="Liberation Sans1" svg:font-family="'Liberation Sans'" style:font-adornments="Regular"/>
     <style:font-face style:name="Liberation Sans" svg:font-family="'Liberation Sans'" style:font-family-generic="swiss" style:font-pitch="variable"/>
     <style:font-face style:name="DejaVu Sans" svg:font-family="'DejaVu Sans'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="Droid Sans Fallback" svg:font-family="'Droid Sans Fallback'" style:font-family-generic="system" style:font-pitch="variable"/>
     <style:font-face style:name="FreeSans" svg:font-family="FreeSans" style:font-family-generic="system" style:font-pitch="variable"/>
+    <style:font-face style:name="Segoe UI" svg:font-family="'Segoe UI'" style:font-family-generic="system" style:font-pitch="variable"/>
+    <style:font-face style:name="Tahoma" svg:font-family="Tahoma" style:font-family-generic="system" style:font-pitch="variable"/>
   </office:font-face-decls>
   <office:styles>
     <style:default-style style:family="table-cell">
-      <style:paragraph-properties style:tab-stop-distance="0.5in"/>
+      <style:paragraph-properties style:tab-stop-distance="36pt"/>
       <style:text-properties style:font-name="Liberation Sans" fo:language="en" fo:country="US" style:font-name-asian="DejaVu Sans" style:language-asian="zh" style:country-asian="CN" style:font-name-complex="DejaVu Sans" style:language-complex="hi" style:country-complex="IN"/>
     </style:default-style>
     <number:number-style style:name="N0">
@@ -677,13 +826,13 @@
     </number:number-style>
     <number:currency-style style:name="N104P0" style:volatile="true">
       <number:currency-symbol number:language="en" number:country="US">$</number:currency-symbol>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
     </number:currency-style>
     <number:currency-style style:name="N104">
       <style:text-properties fo:color="#ff0000"/>
       <number:text>-</number:text>
       <number:currency-symbol number:language="en" number:country="US">$</number:currency-symbol>
-      <number:number number:decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
+      <number:number number:decimal-places="2" loext:min-decimal-places="2" number:min-integer-digits="1" number:grouping="true"/>
       <style:map style:condition="value()&gt;=0" style:apply-style-name="N104P0"/>
     </number:currency-style>
     <style:style style:name="Default" style:family="table-cell">
@@ -704,23 +853,23 @@
   </office:styles>
   <office:automatic-styles>
     <style:page-layout style:name="Mpm1">
-      <style:page-layout-properties fo:page-width="11in" fo:page-height="8.5in" style:num-format="1" style:print-orientation="landscape" style:writing-mode="lr-tb"/>
+      <style:page-layout-properties fo:page-width="792pt" fo:page-height="612pt" style:num-format="1" style:print-orientation="landscape" style:writing-mode="lr-tb"/>
       <style:header-style>
-        <style:header-footer-properties fo:min-height="0.2953in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-bottom="0.0984in"/>
+        <style:header-footer-properties fo:min-height="21.26pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-bottom="7.09pt"/>
       </style:header-style>
       <style:footer-style>
-        <style:header-footer-properties fo:min-height="0.2953in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-top="0.0984in"/>
+        <style:header-footer-properties fo:min-height="21.26pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-top="7.09pt"/>
       </style:footer-style>
     </style:page-layout>
     <style:page-layout style:name="Mpm2">
       <style:page-layout-properties style:writing-mode="lr-tb"/>
       <style:header-style>
-        <style:header-footer-properties fo:min-height="0.2953in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-bottom="0.0984in" fo:border="2.49pt solid #000000" fo:padding="0.0071in" fo:background-color="#c0c0c0">
+        <style:header-footer-properties fo:min-height="21.26pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-bottom="7.09pt" fo:border="2.49pt solid #000000" fo:padding="0.51pt" fo:background-color="#c0c0c0">
           <style:background-image/>
         </style:header-footer-properties>
       </style:header-style>
       <style:footer-style>
-        <style:header-footer-properties fo:min-height="0.2953in" fo:margin-left="0in" fo:margin-right="0in" fo:margin-top="0.0984in" fo:border="2.49pt solid #000000" fo:padding="0.0071in" fo:background-color="#c0c0c0">
+        <style:header-footer-properties fo:min-height="21.26pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-top="7.09pt" fo:border="2.49pt solid #000000" fo:padding="0.51pt" fo:background-color="#c0c0c0">
           <style:background-image/>
         </style:header-footer-properties>
       </style:footer-style>
@@ -754,9 +903,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2017-05-09">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2017-05-25">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="21:42:28.163173465">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="07:52:21.022000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
